--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H2">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I2">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J2">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.880996000000001</v>
+        <v>7.207612333333334</v>
       </c>
       <c r="N2">
-        <v>26.642988</v>
+        <v>21.622837</v>
       </c>
       <c r="O2">
-        <v>0.2027609928815243</v>
+        <v>0.1890664495410015</v>
       </c>
       <c r="P2">
-        <v>0.2196295071201028</v>
+        <v>0.2007919674510081</v>
       </c>
       <c r="Q2">
-        <v>68.64133353694801</v>
+        <v>39.89636622228589</v>
       </c>
       <c r="R2">
-        <v>617.7720018325321</v>
+        <v>359.067296000573</v>
       </c>
       <c r="S2">
-        <v>0.04067215060992758</v>
+        <v>0.02629679891867642</v>
       </c>
       <c r="T2">
-        <v>0.04643078044576233</v>
+        <v>0.02934213846921852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H3">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I3">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J3">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>24.032706</v>
       </c>
       <c r="O3">
-        <v>0.1828959773652177</v>
+        <v>0.2101379387118686</v>
       </c>
       <c r="P3">
-        <v>0.1981118399160912</v>
+        <v>0.2231702676624555</v>
       </c>
       <c r="Q3">
-        <v>61.91636569972599</v>
+        <v>44.34282327931933</v>
       </c>
       <c r="R3">
-        <v>557.2472912975339</v>
+        <v>399.085409513874</v>
       </c>
       <c r="S3">
-        <v>0.0366873954976863</v>
+        <v>0.02922758179944972</v>
       </c>
       <c r="T3">
-        <v>0.04188183757030387</v>
+        <v>0.03261232498039082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H4">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I4">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J4">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.164730666666667</v>
+        <v>9.361017666666667</v>
       </c>
       <c r="N4">
-        <v>21.494192</v>
+        <v>28.083053</v>
       </c>
       <c r="O4">
-        <v>0.1635771374857098</v>
+        <v>0.2455534915692039</v>
       </c>
       <c r="P4">
-        <v>0.1771857869284352</v>
+        <v>0.2607822213107805</v>
       </c>
       <c r="Q4">
-        <v>55.37629646416534</v>
+        <v>51.81613158013744</v>
       </c>
       <c r="R4">
-        <v>498.386668177488</v>
+        <v>466.345184221237</v>
       </c>
       <c r="S4">
-        <v>0.03281219862662178</v>
+        <v>0.03415344608866692</v>
       </c>
       <c r="T4">
-        <v>0.03745796491035695</v>
+        <v>0.03810863624252463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H5">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I5">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J5">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0921725</v>
+        <v>6.6785765</v>
       </c>
       <c r="N5">
-        <v>20.184345</v>
+        <v>13.357153</v>
       </c>
       <c r="O5">
-        <v>0.2304132235203817</v>
+        <v>0.1751890485290578</v>
       </c>
       <c r="P5">
-        <v>0.1663881597624152</v>
+        <v>0.1240359454411156</v>
       </c>
       <c r="Q5">
-        <v>78.00253245074249</v>
+        <v>36.96798906002283</v>
       </c>
       <c r="R5">
-        <v>468.015194704455</v>
+        <v>221.807934360137</v>
       </c>
       <c r="S5">
-        <v>0.04621895561053843</v>
+        <v>0.02436662450216376</v>
       </c>
       <c r="T5">
-        <v>0.03517529231843368</v>
+        <v>0.01812562490669183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H6">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I6">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J6">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.651517</v>
+        <v>6.864003333333333</v>
       </c>
       <c r="N6">
-        <v>28.954551</v>
+        <v>20.59201</v>
       </c>
       <c r="O6">
-        <v>0.2203526687471665</v>
+        <v>0.1800530716488682</v>
       </c>
       <c r="P6">
-        <v>0.2386847062729556</v>
+        <v>0.1912195981346403</v>
       </c>
       <c r="Q6">
-        <v>74.59670036272099</v>
+        <v>37.99438400303222</v>
       </c>
       <c r="R6">
-        <v>671.3703032644891</v>
+        <v>341.94945602729</v>
       </c>
       <c r="S6">
-        <v>0.04420089289965634</v>
+        <v>0.0250431498096838</v>
       </c>
       <c r="T6">
-        <v>0.05045914521248999</v>
+        <v>0.02794330867774347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>27.471136</v>
       </c>
       <c r="I7">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J7">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.880996000000001</v>
+        <v>7.207612333333334</v>
       </c>
       <c r="N7">
-        <v>26.642988</v>
+        <v>21.622837</v>
       </c>
       <c r="O7">
-        <v>0.2027609928815243</v>
+        <v>0.1890664495410015</v>
       </c>
       <c r="P7">
-        <v>0.2196295071201028</v>
+        <v>0.2007919674510081</v>
       </c>
       <c r="Q7">
-        <v>81.32368297715202</v>
+        <v>66.00043288142578</v>
       </c>
       <c r="R7">
-        <v>731.9131467943681</v>
+        <v>594.0038959328321</v>
       </c>
       <c r="S7">
-        <v>0.04818684183080918</v>
+        <v>0.04350271155920352</v>
       </c>
       <c r="T7">
-        <v>0.05500945093557129</v>
+        <v>0.04854060717823941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>27.471136</v>
       </c>
       <c r="I8">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J8">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>24.032706</v>
       </c>
       <c r="O8">
-        <v>0.1828959773652177</v>
+        <v>0.2101379387118686</v>
       </c>
       <c r="P8">
-        <v>0.1981118399160912</v>
+        <v>0.2231702676624555</v>
       </c>
       <c r="Q8">
         <v>73.35619277489067</v>
@@ -948,10 +948,10 @@
         <v>660.2057349740161</v>
       </c>
       <c r="S8">
-        <v>0.04346585310883068</v>
+        <v>0.04835109644054291</v>
       </c>
       <c r="T8">
-        <v>0.04962003366724519</v>
+        <v>0.05395046641549012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>27.471136</v>
       </c>
       <c r="I9">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J9">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.164730666666667</v>
+        <v>9.361017666666667</v>
       </c>
       <c r="N9">
-        <v>21.494192</v>
+        <v>28.083053</v>
       </c>
       <c r="O9">
-        <v>0.1635771374857098</v>
+        <v>0.2455534915692039</v>
       </c>
       <c r="P9">
-        <v>0.1771857869284352</v>
+        <v>0.2607822213107805</v>
       </c>
       <c r="Q9">
-        <v>65.60776351579024</v>
+        <v>85.7192631398009</v>
       </c>
       <c r="R9">
-        <v>590.469871642112</v>
+        <v>771.473368258208</v>
       </c>
       <c r="S9">
-        <v>0.03887466489062878</v>
+        <v>0.05649993820703661</v>
       </c>
       <c r="T9">
-        <v>0.04437879490933032</v>
+        <v>0.06304299681113434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>27.471136</v>
       </c>
       <c r="I10">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J10">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.0921725</v>
+        <v>6.6785765</v>
       </c>
       <c r="N10">
-        <v>20.184345</v>
+        <v>13.357153</v>
       </c>
       <c r="O10">
-        <v>0.2304132235203817</v>
+        <v>0.1751890485290578</v>
       </c>
       <c r="P10">
-        <v>0.1663881597624152</v>
+        <v>0.1240359454411156</v>
       </c>
       <c r="Q10">
-        <v>92.41448109432001</v>
+        <v>61.15602777263467</v>
       </c>
       <c r="R10">
-        <v>554.48688656592</v>
+        <v>366.936166635808</v>
       </c>
       <c r="S10">
-        <v>0.05475848879863723</v>
+        <v>0.04030963010620322</v>
       </c>
       <c r="T10">
-        <v>0.0416743698546178</v>
+        <v>0.02998516414810147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>27.471136</v>
       </c>
       <c r="I11">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J11">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.651517</v>
+        <v>6.864003333333333</v>
       </c>
       <c r="N11">
-        <v>28.954551</v>
+        <v>20.59201</v>
       </c>
       <c r="O11">
-        <v>0.2203526687471665</v>
+        <v>0.1800530716488682</v>
       </c>
       <c r="P11">
-        <v>0.2386847062729556</v>
+        <v>0.1912195981346403</v>
       </c>
       <c r="Q11">
-        <v>88.37937870443734</v>
+        <v>62.85398969148444</v>
       </c>
       <c r="R11">
-        <v>795.4144083399361</v>
+        <v>565.68590722336</v>
       </c>
       <c r="S11">
-        <v>0.05236756362758927</v>
+        <v>0.0414288037899113</v>
       </c>
       <c r="T11">
-        <v>0.05978210674403323</v>
+        <v>0.04622652746355058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H12">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I12">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J12">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.880996000000001</v>
+        <v>7.207612333333334</v>
       </c>
       <c r="N12">
-        <v>26.642988</v>
+        <v>21.622837</v>
       </c>
       <c r="O12">
-        <v>0.2027609928815243</v>
+        <v>0.1890664495410015</v>
       </c>
       <c r="P12">
-        <v>0.2196295071201028</v>
+        <v>0.2007919674510081</v>
       </c>
       <c r="Q12">
-        <v>62.52767365254001</v>
+        <v>67.43875997329134</v>
       </c>
       <c r="R12">
-        <v>562.74906287286</v>
+        <v>606.948839759622</v>
       </c>
       <c r="S12">
-        <v>0.03704961470067592</v>
+        <v>0.04445075274429132</v>
       </c>
       <c r="T12">
-        <v>0.04229534214370464</v>
+        <v>0.04959843766982871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H13">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I13">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J13">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>24.032706</v>
       </c>
       <c r="O13">
-        <v>0.1828959773652177</v>
+        <v>0.2101379387118686</v>
       </c>
       <c r="P13">
-        <v>0.1981118399160912</v>
+        <v>0.2231702676624555</v>
       </c>
       <c r="Q13">
-        <v>56.40167678473</v>
+        <v>74.954821675004</v>
       </c>
       <c r="R13">
-        <v>507.6150910625701</v>
+        <v>674.593395075036</v>
       </c>
       <c r="S13">
-        <v>0.03341976874045142</v>
+        <v>0.04940479698303448</v>
       </c>
       <c r="T13">
-        <v>0.03815155878571365</v>
+        <v>0.05512619230207019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H14">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I14">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J14">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.164730666666667</v>
+        <v>9.361017666666667</v>
       </c>
       <c r="N14">
-        <v>21.494192</v>
+        <v>28.083053</v>
       </c>
       <c r="O14">
-        <v>0.1635771374857098</v>
+        <v>0.2455534915692039</v>
       </c>
       <c r="P14">
-        <v>0.1771857869284352</v>
+        <v>0.2607822213107805</v>
       </c>
       <c r="Q14">
-        <v>50.44411020269334</v>
+        <v>87.58731662196868</v>
       </c>
       <c r="R14">
-        <v>453.9969918242401</v>
+        <v>788.285849597718</v>
       </c>
       <c r="S14">
-        <v>0.029889723025899</v>
+        <v>0.0577312239466</v>
       </c>
       <c r="T14">
-        <v>0.03412170604672716</v>
+        <v>0.06441687341022809</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H15">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I15">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J15">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.0921725</v>
+        <v>6.6785765</v>
       </c>
       <c r="N15">
-        <v>20.184345</v>
+        <v>13.357153</v>
       </c>
       <c r="O15">
-        <v>0.2304132235203817</v>
+        <v>0.1751890485290578</v>
       </c>
       <c r="P15">
-        <v>0.1663881597624152</v>
+        <v>0.1240359454411156</v>
       </c>
       <c r="Q15">
-        <v>71.0551010860875</v>
+        <v>62.488782237053</v>
       </c>
       <c r="R15">
-        <v>426.330606516525</v>
+        <v>374.932693422318</v>
       </c>
       <c r="S15">
-        <v>0.04210238385624284</v>
+        <v>0.04118808545132184</v>
       </c>
       <c r="T15">
-        <v>0.03204234366361513</v>
+        <v>0.03063862158868726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H16">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I16">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J16">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.651517</v>
+        <v>6.864003333333333</v>
       </c>
       <c r="N16">
-        <v>28.954551</v>
+        <v>20.59201</v>
       </c>
       <c r="O16">
-        <v>0.2203526687471665</v>
+        <v>0.1800530716488682</v>
       </c>
       <c r="P16">
-        <v>0.2386847062729556</v>
+        <v>0.1912195981346403</v>
       </c>
       <c r="Q16">
-        <v>67.952615362955</v>
+        <v>64.22374731667333</v>
       </c>
       <c r="R16">
-        <v>611.5735382665951</v>
+        <v>578.0137258500599</v>
       </c>
       <c r="S16">
-        <v>0.04026406341439896</v>
+        <v>0.04233164894217971</v>
       </c>
       <c r="T16">
-        <v>0.04596491358860896</v>
+        <v>0.04723392792913758</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H17">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I17">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J17">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.880996000000001</v>
+        <v>7.207612333333334</v>
       </c>
       <c r="N17">
-        <v>26.642988</v>
+        <v>21.622837</v>
       </c>
       <c r="O17">
-        <v>0.2027609928815243</v>
+        <v>0.1890664495410015</v>
       </c>
       <c r="P17">
-        <v>0.2196295071201028</v>
+        <v>0.2007919674510081</v>
       </c>
       <c r="Q17">
-        <v>52.51003449848401</v>
+        <v>41.48267400423583</v>
       </c>
       <c r="R17">
-        <v>315.060206990904</v>
+        <v>248.896044025415</v>
       </c>
       <c r="S17">
-        <v>0.03111384819622189</v>
+        <v>0.02734237827125835</v>
       </c>
       <c r="T17">
-        <v>0.02367943392481009</v>
+        <v>0.02033920178634922</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H18">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I18">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J18">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>24.032706</v>
       </c>
       <c r="O18">
-        <v>0.1828959773652177</v>
+        <v>0.2101379387118686</v>
       </c>
       <c r="P18">
-        <v>0.1981118399160912</v>
+        <v>0.2231702676624555</v>
       </c>
       <c r="Q18">
-        <v>47.365491481358</v>
+        <v>46.105925343545</v>
       </c>
       <c r="R18">
-        <v>284.192948888148</v>
+        <v>276.63555206127</v>
       </c>
       <c r="S18">
-        <v>0.02806554453383498</v>
+        <v>0.03038969115541777</v>
       </c>
       <c r="T18">
-        <v>0.02135949893312969</v>
+        <v>0.02260600941523101</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H19">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I19">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J19">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.164730666666667</v>
+        <v>9.361017666666667</v>
       </c>
       <c r="N19">
-        <v>21.494192</v>
+        <v>28.083053</v>
       </c>
       <c r="O19">
-        <v>0.1635771374857098</v>
+        <v>0.2455534915692039</v>
       </c>
       <c r="P19">
-        <v>0.1771857869284352</v>
+        <v>0.2607822213107805</v>
       </c>
       <c r="Q19">
-        <v>42.36239431692267</v>
+        <v>53.87637767618917</v>
       </c>
       <c r="R19">
-        <v>254.174365901536</v>
+        <v>323.258266057135</v>
       </c>
       <c r="S19">
-        <v>0.02510105199118233</v>
+        <v>0.03551141129805476</v>
       </c>
       <c r="T19">
-        <v>0.01910334903994933</v>
+        <v>0.02641590840941638</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H20">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I20">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J20">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.0921725</v>
+        <v>6.6785765</v>
       </c>
       <c r="N20">
-        <v>20.184345</v>
+        <v>13.357153</v>
       </c>
       <c r="O20">
-        <v>0.2304132235203817</v>
+        <v>0.1751890485290578</v>
       </c>
       <c r="P20">
-        <v>0.1663881597624152</v>
+        <v>0.1240359454411156</v>
       </c>
       <c r="Q20">
-        <v>59.6712717965025</v>
+        <v>38.43786249165875</v>
       </c>
       <c r="R20">
-        <v>238.68508718601</v>
+        <v>153.751449966635</v>
       </c>
       <c r="S20">
-        <v>0.03535710669558743</v>
+        <v>0.02533545875268864</v>
       </c>
       <c r="T20">
-        <v>0.01793919900211909</v>
+        <v>0.01256420839495482</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H21">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I21">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J21">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.651517</v>
+        <v>6.864003333333333</v>
       </c>
       <c r="N21">
-        <v>28.954551</v>
+        <v>20.59201</v>
       </c>
       <c r="O21">
-        <v>0.2203526687471665</v>
+        <v>0.1800530716488682</v>
       </c>
       <c r="P21">
-        <v>0.2386847062729556</v>
+        <v>0.1912195981346403</v>
       </c>
       <c r="Q21">
-        <v>57.065839308193</v>
+        <v>39.50506762465833</v>
       </c>
       <c r="R21">
-        <v>342.395035849158</v>
+        <v>237.03040574795</v>
       </c>
       <c r="S21">
-        <v>0.03381330594015073</v>
+        <v>0.0260388831856585</v>
       </c>
       <c r="T21">
-        <v>0.02573387704213371</v>
+        <v>0.01936956961644399</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H22">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I22">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J22">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.880996000000001</v>
+        <v>7.207612333333334</v>
       </c>
       <c r="N22">
-        <v>26.642988</v>
+        <v>21.622837</v>
       </c>
       <c r="O22">
-        <v>0.2027609928815243</v>
+        <v>0.1890664495410015</v>
       </c>
       <c r="P22">
-        <v>0.2196295071201028</v>
+        <v>0.2007919674510081</v>
       </c>
       <c r="Q22">
-        <v>77.19174334184402</v>
+        <v>72.02520875981067</v>
       </c>
       <c r="R22">
-        <v>694.725690076596</v>
+        <v>648.226878838296</v>
       </c>
       <c r="S22">
-        <v>0.04573853754388974</v>
+        <v>0.04747380804757192</v>
       </c>
       <c r="T22">
-        <v>0.05221449967025443</v>
+        <v>0.0529715823473722</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H23">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I23">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J23">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>24.032706</v>
       </c>
       <c r="O23">
-        <v>0.1828959773652177</v>
+        <v>0.2101379387118686</v>
       </c>
       <c r="P23">
-        <v>0.1981118399160912</v>
+        <v>0.2231702676624555</v>
       </c>
       <c r="Q23">
-        <v>69.629069883678</v>
+        <v>80.05243098827199</v>
       </c>
       <c r="R23">
-        <v>626.6616289531021</v>
+        <v>720.4718788944481</v>
       </c>
       <c r="S23">
-        <v>0.04125741548441429</v>
+        <v>0.05276477233342367</v>
       </c>
       <c r="T23">
-        <v>0.04709891095969873</v>
+        <v>0.05887527454927334</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H24">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I24">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J24">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.164730666666667</v>
+        <v>9.361017666666667</v>
       </c>
       <c r="N24">
-        <v>21.494192</v>
+        <v>28.083053</v>
       </c>
       <c r="O24">
-        <v>0.1635771374857098</v>
+        <v>0.2455534915692039</v>
       </c>
       <c r="P24">
-        <v>0.1771857869284352</v>
+        <v>0.2607822213107805</v>
       </c>
       <c r="Q24">
-        <v>62.274327196496</v>
+        <v>93.54405043786934</v>
       </c>
       <c r="R24">
-        <v>560.4689447684641</v>
+        <v>841.896453940824</v>
       </c>
       <c r="S24">
-        <v>0.03689949895137792</v>
+        <v>0.06165747202884564</v>
       </c>
       <c r="T24">
-        <v>0.04212397202207145</v>
+        <v>0.06879780643747709</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H25">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I25">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J25">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.0921725</v>
+        <v>6.6785765</v>
       </c>
       <c r="N25">
-        <v>20.184345</v>
+        <v>13.357153</v>
       </c>
       <c r="O25">
-        <v>0.2304132235203817</v>
+        <v>0.1751890485290578</v>
       </c>
       <c r="P25">
-        <v>0.1663881597624152</v>
+        <v>0.1240359454411156</v>
       </c>
       <c r="Q25">
-        <v>87.7190339216025</v>
+        <v>66.738587535604</v>
       </c>
       <c r="R25">
-        <v>526.314203529615</v>
+        <v>400.431525213624</v>
       </c>
       <c r="S25">
-        <v>0.05197628855937572</v>
+        <v>0.04398924971668029</v>
       </c>
       <c r="T25">
-        <v>0.0395569549236295</v>
+        <v>0.03272232640268017</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H26">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I26">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J26">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.651517</v>
+        <v>6.864003333333333</v>
       </c>
       <c r="N26">
-        <v>28.954551</v>
+        <v>20.59201</v>
       </c>
       <c r="O26">
-        <v>0.2203526687471665</v>
+        <v>0.1800530716488682</v>
       </c>
       <c r="P26">
-        <v>0.2386847062729556</v>
+        <v>0.1912195981346403</v>
       </c>
       <c r="Q26">
-        <v>83.888949293913</v>
+        <v>68.59154601378667</v>
       </c>
       <c r="R26">
-        <v>755.000543645217</v>
+        <v>617.3239141240799</v>
       </c>
       <c r="S26">
-        <v>0.04970684286537118</v>
+        <v>0.04521058592143488</v>
       </c>
       <c r="T26">
-        <v>0.05674466368568965</v>
+        <v>0.05044626444776473</v>
       </c>
     </row>
   </sheetData>
